--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H2">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I2">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J2">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.75150633333334</v>
+        <v>0.5229673333333335</v>
       </c>
       <c r="N2">
-        <v>50.254519</v>
+        <v>1.568902</v>
       </c>
       <c r="O2">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="P2">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="Q2">
-        <v>331.048790572588</v>
+        <v>20.35912909465823</v>
       </c>
       <c r="R2">
-        <v>2979.439115153291</v>
+        <v>183.232161851924</v>
       </c>
       <c r="S2">
-        <v>0.2113534847635987</v>
+        <v>0.01421093686495504</v>
       </c>
       <c r="T2">
-        <v>0.2113534847635987</v>
+        <v>0.01421093686495503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H3">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I3">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J3">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.791212</v>
       </c>
       <c r="O3">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627222</v>
       </c>
       <c r="P3">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627221</v>
       </c>
       <c r="Q3">
-        <v>97.43626923785202</v>
+        <v>191.940729615016</v>
       </c>
       <c r="R3">
-        <v>876.926423140668</v>
+        <v>1727.466566535144</v>
       </c>
       <c r="S3">
-        <v>0.06220682761041169</v>
+        <v>0.1339771253323441</v>
       </c>
       <c r="T3">
-        <v>0.06220682761041167</v>
+        <v>0.133977125332344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H4">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I4">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J4">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.131685666666667</v>
+        <v>1.127819333333333</v>
       </c>
       <c r="N4">
-        <v>3.395057</v>
+        <v>3.383458</v>
       </c>
       <c r="O4">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="P4">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="Q4">
-        <v>22.36474522370811</v>
+        <v>43.90602995493289</v>
       </c>
       <c r="R4">
-        <v>201.282707013373</v>
+        <v>395.1542695943961</v>
       </c>
       <c r="S4">
-        <v>0.01427845977236493</v>
+        <v>0.03064697987715423</v>
       </c>
       <c r="T4">
-        <v>0.01427845977236493</v>
+        <v>0.03064697987715423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H5">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I5">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J5">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.470675</v>
+        <v>21.42523899999999</v>
       </c>
       <c r="N5">
-        <v>76.412025</v>
+        <v>64.27571699999999</v>
       </c>
       <c r="O5">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="P5">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="Q5">
-        <v>503.3598761825251</v>
+        <v>834.0849970582725</v>
       </c>
       <c r="R5">
-        <v>4530.238885642725</v>
+        <v>7506.764973524453</v>
       </c>
       <c r="S5">
-        <v>0.3213630949605393</v>
+        <v>0.5822021746652861</v>
       </c>
       <c r="T5">
-        <v>0.3213630949605392</v>
+        <v>0.582202174665286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>29.37475</v>
       </c>
       <c r="I6">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J6">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.75150633333334</v>
+        <v>0.5229673333333335</v>
       </c>
       <c r="N6">
-        <v>50.254519</v>
+        <v>1.568902</v>
       </c>
       <c r="O6">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="P6">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="Q6">
-        <v>164.0237702216945</v>
+        <v>5.120678224944446</v>
       </c>
       <c r="R6">
-        <v>1476.21393199525</v>
+        <v>46.0861040245</v>
       </c>
       <c r="S6">
-        <v>0.1047186892314521</v>
+        <v>0.003574299992013344</v>
       </c>
       <c r="T6">
-        <v>0.1047186892314521</v>
+        <v>0.003574299992013343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>29.37475</v>
       </c>
       <c r="I7">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J7">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.791212</v>
       </c>
       <c r="O7">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627222</v>
       </c>
       <c r="P7">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627221</v>
       </c>
       <c r="Q7">
         <v>48.276461633</v>
@@ -883,10 +883,10 @@
         <v>434.488154697</v>
       </c>
       <c r="S7">
-        <v>0.03082143384527321</v>
+        <v>0.03369759802299167</v>
       </c>
       <c r="T7">
-        <v>0.0308214338452732</v>
+        <v>0.03369759802299165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>29.37475</v>
       </c>
       <c r="I8">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J8">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.131685666666667</v>
+        <v>1.127819333333333</v>
       </c>
       <c r="N8">
-        <v>3.395057</v>
+        <v>3.383458</v>
       </c>
       <c r="O8">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="P8">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="Q8">
-        <v>11.08099451230555</v>
+        <v>11.04313698727778</v>
       </c>
       <c r="R8">
-        <v>99.72895061074998</v>
+        <v>99.3882328855</v>
       </c>
       <c r="S8">
-        <v>0.007074506451968351</v>
+        <v>0.007708253225744808</v>
       </c>
       <c r="T8">
-        <v>0.00707450645196835</v>
+        <v>0.007708253225744807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>29.37475</v>
       </c>
       <c r="I9">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J9">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.470675</v>
+        <v>21.42523899999999</v>
       </c>
       <c r="N9">
-        <v>76.412025</v>
+        <v>64.27571699999999</v>
       </c>
       <c r="O9">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="P9">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="Q9">
-        <v>249.39823681875</v>
+        <v>209.7870131050833</v>
       </c>
       <c r="R9">
-        <v>2244.58413136875</v>
+        <v>1888.08311794575</v>
       </c>
       <c r="S9">
-        <v>0.1592248271149695</v>
+        <v>0.1464340632874149</v>
       </c>
       <c r="T9">
-        <v>0.1592248271149695</v>
+        <v>0.1464340632874149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H10">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I10">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J10">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.75150633333334</v>
+        <v>0.5229673333333335</v>
       </c>
       <c r="N10">
-        <v>50.254519</v>
+        <v>1.568902</v>
       </c>
       <c r="O10">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="P10">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="Q10">
-        <v>47.45224884686378</v>
+        <v>0.938279749230667</v>
       </c>
       <c r="R10">
-        <v>427.070239621774</v>
+        <v>8.444517743076002</v>
       </c>
       <c r="S10">
-        <v>0.0302952266833763</v>
+        <v>0.0006549314666648166</v>
       </c>
       <c r="T10">
-        <v>0.0302952266833763</v>
+        <v>0.0006549314666648164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H11">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I11">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J11">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.791212</v>
       </c>
       <c r="O11">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627222</v>
       </c>
       <c r="P11">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627221</v>
       </c>
       <c r="Q11">
-        <v>13.966431010328</v>
+        <v>8.845864614984002</v>
       </c>
       <c r="R11">
-        <v>125.697879092952</v>
+        <v>79.61278153485601</v>
       </c>
       <c r="S11">
-        <v>0.008916673154545082</v>
+        <v>0.006174528535823291</v>
       </c>
       <c r="T11">
-        <v>0.00891667315454508</v>
+        <v>0.006174528535823289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H12">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I12">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J12">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.131685666666667</v>
+        <v>1.127819333333333</v>
       </c>
       <c r="N12">
-        <v>3.395057</v>
+        <v>3.383458</v>
       </c>
       <c r="O12">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="P12">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="Q12">
-        <v>3.205743340480222</v>
+        <v>2.023472545622667</v>
       </c>
       <c r="R12">
-        <v>28.851690064322</v>
+        <v>18.211252910604</v>
       </c>
       <c r="S12">
-        <v>0.002046662140333758</v>
+        <v>0.001412410150754353</v>
       </c>
       <c r="T12">
-        <v>0.002046662140333757</v>
+        <v>0.001412410150754353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H13">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I13">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J13">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.470675</v>
+        <v>21.42523899999999</v>
       </c>
       <c r="N13">
-        <v>76.412025</v>
+        <v>64.27571699999999</v>
       </c>
       <c r="O13">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="P13">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="Q13">
-        <v>72.15117162285</v>
+        <v>38.44000685089399</v>
       </c>
       <c r="R13">
-        <v>649.36054460565</v>
+        <v>345.960061658046</v>
       </c>
       <c r="S13">
-        <v>0.04606390957021829</v>
+        <v>0.02683162466855333</v>
       </c>
       <c r="T13">
-        <v>0.04606390957021828</v>
+        <v>0.02683162466855333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H14">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I14">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J14">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.75150633333334</v>
+        <v>0.5229673333333335</v>
       </c>
       <c r="N14">
-        <v>50.254519</v>
+        <v>1.568902</v>
       </c>
       <c r="O14">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="P14">
-        <v>0.3469350574503514</v>
+        <v>0.01867311683630173</v>
       </c>
       <c r="Q14">
-        <v>0.8891364531606667</v>
+        <v>0.3337309064768889</v>
       </c>
       <c r="R14">
-        <v>8.002228078446</v>
+        <v>3.003578158292</v>
       </c>
       <c r="S14">
-        <v>0.0005676567719242222</v>
+        <v>0.0002329485126685326</v>
       </c>
       <c r="T14">
-        <v>0.0005676567719242222</v>
+        <v>0.0002329485126685325</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H15">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I15">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J15">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.791212</v>
       </c>
       <c r="O15">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627222</v>
       </c>
       <c r="P15">
-        <v>0.1021120107622625</v>
+        <v>0.1760454316627221</v>
       </c>
       <c r="Q15">
-        <v>0.261695983512</v>
+        <v>3.146330738728</v>
       </c>
       <c r="R15">
-        <v>2.355263851608</v>
+        <v>28.316976648552</v>
       </c>
       <c r="S15">
-        <v>0.0001670761520325529</v>
+        <v>0.002196179771563138</v>
       </c>
       <c r="T15">
-        <v>0.0001670761520325529</v>
+        <v>0.002196179771563138</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H16">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I16">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J16">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.131685666666667</v>
+        <v>1.127819333333333</v>
       </c>
       <c r="N16">
-        <v>3.395057</v>
+        <v>3.383458</v>
       </c>
       <c r="O16">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="P16">
-        <v>0.02343797769395061</v>
+        <v>0.04027001466294246</v>
       </c>
       <c r="Q16">
-        <v>0.06006761181533332</v>
+        <v>0.7197164038075554</v>
       </c>
       <c r="R16">
-        <v>0.5406085063379998</v>
+        <v>6.477447634268</v>
       </c>
       <c r="S16">
-        <v>3.834932928357614E-05</v>
+        <v>0.0005023714092890746</v>
       </c>
       <c r="T16">
-        <v>3.834932928357614E-05</v>
+        <v>0.0005023714092890746</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H17">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I17">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J17">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.470675</v>
+        <v>21.42523899999999</v>
       </c>
       <c r="N17">
-        <v>76.412025</v>
+        <v>64.27571699999999</v>
       </c>
       <c r="O17">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="P17">
-        <v>0.5275149540934355</v>
+        <v>0.7650114368380336</v>
       </c>
       <c r="Q17">
-        <v>1.35193248765</v>
+        <v>13.67248770086466</v>
       </c>
       <c r="R17">
-        <v>12.16739238885</v>
+        <v>123.052389307782</v>
       </c>
       <c r="S17">
-        <v>0.0008631224477084929</v>
+        <v>0.009543574216779319</v>
       </c>
       <c r="T17">
-        <v>0.0008631224477084928</v>
+        <v>0.009543574216779319</v>
       </c>
     </row>
   </sheetData>
